--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sammi\Documents\LTHE\esperanto_intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5F69A-9C09-4316-A506-82D4B417CFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67844D76-8B09-49EC-980C-24B2CE78AE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3396" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="3396" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adjectives" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>happy</t>
   </si>
   <si>
-    <t xml:space="preserve">malfeliĉa </t>
-  </si>
-  <si>
     <t>sad</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Ŝia</t>
+  </si>
+  <si>
+    <t>malfeliĉa</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,10 +635,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,18 +659,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -688,14 +688,14 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -703,74 +703,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -803,50 +803,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6837AE-6F9F-4576-AA23-D9F153561DE6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -879,50 +879,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -946,46 +946,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
